--- a/team_specific_matrix/Bucknell_A.xlsx
+++ b/team_specific_matrix/Bucknell_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1595744680851064</v>
+        <v>0.16</v>
       </c>
       <c r="C2">
-        <v>0.6223404255319149</v>
+        <v>0.62</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005319148936170213</v>
+        <v>0.012</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1276595744680851</v>
+        <v>0.116</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0851063829787234</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008403361344537815</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C3">
-        <v>0.01680672268907563</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02521008403361345</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7478991596638656</v>
+        <v>0.7243589743589743</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2016806722689076</v>
+        <v>0.2243589743589744</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.04347826086956522</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="P4">
-        <v>0.6521739130434783</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3043478260869565</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07766990291262135</v>
+        <v>0.0695970695970696</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009708737864077669</v>
+        <v>0.01465201465201465</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1116504854368932</v>
+        <v>0.1062271062271062</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.145631067961165</v>
+        <v>0.1465201465201465</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01456310679611651</v>
+        <v>0.01465201465201465</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1699029126213592</v>
+        <v>0.1721611721611722</v>
       </c>
       <c r="R6">
-        <v>0.08737864077669903</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S6">
-        <v>0.383495145631068</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1532846715328467</v>
+        <v>0.1270718232044199</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0218978102189781</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0948905109489051</v>
+        <v>0.09944751381215469</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1313868613138686</v>
+        <v>0.1325966850828729</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0072992700729927</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2116788321167883</v>
+        <v>0.1988950276243094</v>
       </c>
       <c r="R7">
-        <v>0.06569343065693431</v>
+        <v>0.08287292817679558</v>
       </c>
       <c r="S7">
-        <v>0.3138686131386861</v>
+        <v>0.3259668508287293</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.0951219512195122</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01</v>
+        <v>0.007317073170731708</v>
       </c>
       <c r="E8">
-        <v>0.003333333333333334</v>
+        <v>0.002439024390243902</v>
       </c>
       <c r="F8">
-        <v>0.07666666666666666</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1233333333333333</v>
+        <v>0.1121951219512195</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02333333333333333</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1433333333333333</v>
+        <v>0.1365853658536585</v>
       </c>
       <c r="R8">
-        <v>0.11</v>
+        <v>0.1121951219512195</v>
       </c>
       <c r="S8">
-        <v>0.41</v>
+        <v>0.4365853658536585</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05031446540880503</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01257861635220126</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05660377358490566</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1320754716981132</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0440251572327044</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1383647798742138</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="R9">
-        <v>0.09433962264150944</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="S9">
-        <v>0.4716981132075472</v>
+        <v>0.4357798165137615</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09007981755986318</v>
+        <v>0.09730668983492616</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01824401368301026</v>
+        <v>0.01824500434404865</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09920182440136831</v>
+        <v>0.09904430929626412</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09920182440136831</v>
+        <v>0.08861859252823631</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02052451539338655</v>
+        <v>0.02432667245873154</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1676168757126568</v>
+        <v>0.1702867072111208</v>
       </c>
       <c r="R10">
-        <v>0.104903078677309</v>
+        <v>0.09904430929626412</v>
       </c>
       <c r="S10">
-        <v>0.4002280501710376</v>
+        <v>0.4031277150304083</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1463414634146341</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1024390243902439</v>
+        <v>0.1087719298245614</v>
       </c>
       <c r="K11">
-        <v>0.2097560975609756</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0.5365853658536586</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004878048780487805</v>
+        <v>0.01052631578947368</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7964601769911505</v>
+        <v>0.7468354430379747</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1592920353982301</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="L12">
-        <v>0.02654867256637168</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01769911504424779</v>
+        <v>0.04430379746835443</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6571428571428571</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05714285714285714</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005291005291005291</v>
+        <v>0.007782101167315175</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1005291005291005</v>
+        <v>0.09727626459143969</v>
       </c>
       <c r="I15">
-        <v>0.1164021164021164</v>
+        <v>0.11284046692607</v>
       </c>
       <c r="J15">
-        <v>0.3386243386243386</v>
+        <v>0.3385214007782101</v>
       </c>
       <c r="K15">
-        <v>0.03703703703703703</v>
+        <v>0.04669260700389105</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02645502645502645</v>
+        <v>0.01945525291828794</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1111111111111111</v>
+        <v>0.1011673151750973</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2645502645502645</v>
+        <v>0.2762645914396887</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03174603174603174</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1587301587301587</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="I16">
-        <v>0.1031746031746032</v>
+        <v>0.08441558441558442</v>
       </c>
       <c r="J16">
-        <v>0.373015873015873</v>
+        <v>0.3831168831168831</v>
       </c>
       <c r="K16">
-        <v>0.0873015873015873</v>
+        <v>0.08441558441558442</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04761904761904762</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06349206349206349</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1349206349206349</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01824817518248175</v>
+        <v>0.02472527472527472</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1642335766423358</v>
+        <v>0.1620879120879121</v>
       </c>
       <c r="I17">
-        <v>0.08759124087591241</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="J17">
-        <v>0.4051094890510949</v>
+        <v>0.3983516483516483</v>
       </c>
       <c r="K17">
-        <v>0.1167883211678832</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02554744525547445</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0583941605839416</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1240875912408759</v>
+        <v>0.1291208791208791</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01212121212121212</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1818181818181818</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="I18">
-        <v>0.09090909090909091</v>
+        <v>0.1085972850678733</v>
       </c>
       <c r="J18">
-        <v>0.3939393939393939</v>
+        <v>0.3891402714932127</v>
       </c>
       <c r="K18">
-        <v>0.08484848484848485</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02424242424242424</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="N18">
-        <v>0.006060606060606061</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="O18">
-        <v>0.07272727272727272</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1333333333333333</v>
+        <v>0.1312217194570136</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01291711517761033</v>
+        <v>0.01341752170481452</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1980624327233584</v>
+        <v>0.2052091554853986</v>
       </c>
       <c r="I19">
-        <v>0.09257265877287406</v>
+        <v>0.09550118389897395</v>
       </c>
       <c r="J19">
-        <v>0.38751345532831</v>
+        <v>0.372533543804262</v>
       </c>
       <c r="K19">
-        <v>0.1054897739504844</v>
+        <v>0.1081294396211523</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01399354144241119</v>
+        <v>0.01736385161799527</v>
       </c>
       <c r="N19">
-        <v>0.001076426264800861</v>
+        <v>0.001578531965272297</v>
       </c>
       <c r="O19">
-        <v>0.08719052744886975</v>
+        <v>0.08366219415943173</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.101184068891281</v>
+        <v>0.1026045777426993</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bucknell_A.xlsx
+++ b/team_specific_matrix/Bucknell_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.16</v>
+        <v>0.1647509578544061</v>
       </c>
       <c r="C2">
-        <v>0.62</v>
+        <v>0.6091954022988506</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.012</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.116</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.092</v>
+        <v>0.09961685823754789</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00641025641025641</v>
+        <v>0.00625</v>
       </c>
       <c r="C3">
-        <v>0.01282051282051282</v>
+        <v>0.0125</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03205128205128205</v>
+        <v>0.03125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7243589743589743</v>
+        <v>0.70625</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2243589743589744</v>
+        <v>0.24375</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0695970695970696</v>
+        <v>0.06440677966101695</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01465201465201465</v>
+        <v>0.0135593220338983</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1062271062271062</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1465201465201465</v>
+        <v>0.1491525423728814</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01465201465201465</v>
+        <v>0.0135593220338983</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1721611721611722</v>
+        <v>0.176271186440678</v>
       </c>
       <c r="R6">
-        <v>0.09523809523809523</v>
+        <v>0.09491525423728814</v>
       </c>
       <c r="S6">
-        <v>0.3809523809523809</v>
+        <v>0.3864406779661017</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270718232044199</v>
+        <v>0.1236559139784946</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01657458563535912</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09944751381215469</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1325966850828729</v>
+        <v>0.1344086021505376</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01657458563535912</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1988950276243094</v>
+        <v>0.1989247311827957</v>
       </c>
       <c r="R7">
-        <v>0.08287292817679558</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="S7">
-        <v>0.3259668508287293</v>
+        <v>0.3279569892473118</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0951219512195122</v>
+        <v>0.09280742459396751</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007317073170731708</v>
+        <v>0.006960556844547564</v>
       </c>
       <c r="E8">
-        <v>0.002439024390243902</v>
+        <v>0.002320185614849188</v>
       </c>
       <c r="F8">
-        <v>0.07317073170731707</v>
+        <v>0.0765661252900232</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1121951219512195</v>
+        <v>0.111368909512761</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02439024390243903</v>
+        <v>0.02320185614849188</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1365853658536585</v>
+        <v>0.1392111368909513</v>
       </c>
       <c r="R8">
-        <v>0.1121951219512195</v>
+        <v>0.1160092807424594</v>
       </c>
       <c r="S8">
-        <v>0.4365853658536585</v>
+        <v>0.431554524361949</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.05045871559633028</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01376146788990826</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07798165137614679</v>
+        <v>0.08</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1284403669724771</v>
+        <v>0.1288888888888889</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04587155963302753</v>
+        <v>0.04888888888888889</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1467889908256881</v>
+        <v>0.1511111111111111</v>
       </c>
       <c r="R9">
-        <v>0.1009174311926606</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="S9">
-        <v>0.4357798165137615</v>
+        <v>0.4311111111111111</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09730668983492616</v>
+        <v>0.09512390087929656</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01824500434404865</v>
+        <v>0.01678657074340528</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09904430929626412</v>
+        <v>0.09832134292565947</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08861859252823631</v>
+        <v>0.08952837729816147</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02432667245873154</v>
+        <v>0.0231814548361311</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1702867072111208</v>
+        <v>0.1710631494804157</v>
       </c>
       <c r="R10">
-        <v>0.09904430929626412</v>
+        <v>0.1015187849720224</v>
       </c>
       <c r="S10">
-        <v>0.4031277150304083</v>
+        <v>0.4044764188649081</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1473684210526316</v>
+        <v>0.1438356164383562</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1087719298245614</v>
+        <v>0.1095890410958904</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.1952054794520548</v>
       </c>
       <c r="L11">
-        <v>0.5333333333333333</v>
+        <v>0.541095890410959</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01052631578947368</v>
+        <v>0.01027397260273973</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7468354430379747</v>
+        <v>0.7378048780487805</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1708860759493671</v>
+        <v>0.1829268292682927</v>
       </c>
       <c r="K12">
-        <v>0.006329113924050633</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="L12">
-        <v>0.03164556962025317</v>
+        <v>0.03048780487804878</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04430379746835443</v>
+        <v>0.0426829268292683</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5957446808510638</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3617021276595745</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0425531914893617</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007782101167315175</v>
+        <v>0.01094890510948905</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.09727626459143969</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="I15">
-        <v>0.11284046692607</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="J15">
-        <v>0.3385214007782101</v>
+        <v>0.354014598540146</v>
       </c>
       <c r="K15">
-        <v>0.04669260700389105</v>
+        <v>0.04744525547445255</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01945525291828794</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1011673151750973</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2762645914396887</v>
+        <v>0.2664233576642336</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03246753246753246</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1688311688311688</v>
+        <v>0.1741935483870968</v>
       </c>
       <c r="I16">
-        <v>0.08441558441558442</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="J16">
-        <v>0.3831168831168831</v>
+        <v>0.3806451612903226</v>
       </c>
       <c r="K16">
-        <v>0.08441558441558442</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.05194805194805195</v>
+        <v>0.05161290322580645</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05844155844155844</v>
+        <v>0.05806451612903226</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1363636363636364</v>
+        <v>0.1354838709677419</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02472527472527472</v>
+        <v>0.02544529262086514</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1620879120879121</v>
+        <v>0.1653944020356234</v>
       </c>
       <c r="I17">
-        <v>0.08791208791208792</v>
+        <v>0.08905852417302799</v>
       </c>
       <c r="J17">
-        <v>0.3983516483516483</v>
+        <v>0.3969465648854962</v>
       </c>
       <c r="K17">
-        <v>0.1153846153846154</v>
+        <v>0.1094147582697201</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02197802197802198</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06043956043956044</v>
+        <v>0.06361323155216285</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1291208791208791</v>
+        <v>0.1272264631043257</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.009049773755656109</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1719457013574661</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I18">
-        <v>0.1085972850678733</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="J18">
-        <v>0.3891402714932127</v>
+        <v>0.4041666666666667</v>
       </c>
       <c r="K18">
-        <v>0.09954751131221719</v>
+        <v>0.09166666666666666</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01809954751131222</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N18">
-        <v>0.004524886877828055</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="O18">
-        <v>0.06787330316742081</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1312217194570136</v>
+        <v>0.1291666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01341752170481452</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2052091554853986</v>
+        <v>0.2001471670345843</v>
       </c>
       <c r="I19">
-        <v>0.09550118389897395</v>
+        <v>0.09050772626931568</v>
       </c>
       <c r="J19">
-        <v>0.372533543804262</v>
+        <v>0.3804267844002943</v>
       </c>
       <c r="K19">
-        <v>0.1081294396211523</v>
+        <v>0.1044885945548197</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01736385161799527</v>
+        <v>0.01766004415011038</v>
       </c>
       <c r="N19">
-        <v>0.001578531965272297</v>
+        <v>0.001471670345842531</v>
       </c>
       <c r="O19">
-        <v>0.08366219415943173</v>
+        <v>0.08535688005886681</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1026045777426993</v>
+        <v>0.1066961000735835</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bucknell_A.xlsx
+++ b/team_specific_matrix/Bucknell_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1647509578544061</v>
+        <v>0.1604477611940298</v>
       </c>
       <c r="C2">
-        <v>0.6091954022988506</v>
+        <v>0.6156716417910447</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01149425287356322</v>
+        <v>0.01119402985074627</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1149425287356322</v>
+        <v>0.1156716417910448</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09961685823754789</v>
+        <v>0.09701492537313433</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00625</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C3">
-        <v>0.0125</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03125</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.70625</v>
+        <v>0.6987951807228916</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.24375</v>
+        <v>0.2530120481927711</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03333333333333333</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03333333333333333</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="P4">
-        <v>0.5666666666666667</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3666666666666666</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06440677966101695</v>
+        <v>0.06578947368421052</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0135593220338983</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1016949152542373</v>
+        <v>0.1019736842105263</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1491525423728814</v>
+        <v>0.1513157894736842</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0135593220338983</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.176271186440678</v>
+        <v>0.1743421052631579</v>
       </c>
       <c r="R6">
-        <v>0.09491525423728814</v>
+        <v>0.09210526315789473</v>
       </c>
       <c r="S6">
-        <v>0.3864406779661017</v>
+        <v>0.3881578947368421</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1236559139784946</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01612903225806452</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1021505376344086</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1344086021505376</v>
+        <v>0.1436170212765958</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01612903225806452</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1989247311827957</v>
+        <v>0.1968085106382979</v>
       </c>
       <c r="R7">
-        <v>0.08064516129032258</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="S7">
-        <v>0.3279569892473118</v>
+        <v>0.324468085106383</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09280742459396751</v>
+        <v>0.09234234234234234</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006960556844547564</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="E8">
-        <v>0.002320185614849188</v>
+        <v>0.002252252252252252</v>
       </c>
       <c r="F8">
-        <v>0.0765661252900232</v>
+        <v>0.07657657657657657</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.111368909512761</v>
+        <v>0.1171171171171171</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02320185614849188</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1392111368909513</v>
+        <v>0.1373873873873874</v>
       </c>
       <c r="R8">
-        <v>0.1160092807424594</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="S8">
-        <v>0.431554524361949</v>
+        <v>0.4279279279279279</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.04888888888888889</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01333333333333333</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08</v>
+        <v>0.08189655172413793</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1288888888888889</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04888888888888889</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1511111111111111</v>
+        <v>0.1508620689655172</v>
       </c>
       <c r="R9">
-        <v>0.09777777777777778</v>
+        <v>0.09913793103448276</v>
       </c>
       <c r="S9">
-        <v>0.4311111111111111</v>
+        <v>0.4310344827586207</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09512390087929656</v>
+        <v>0.09468822170900693</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01678657074340528</v>
+        <v>0.01770592763664357</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09832134292565947</v>
+        <v>0.09699769053117784</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08952837729816147</v>
+        <v>0.09160892994611239</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0231814548361311</v>
+        <v>0.02386451116243264</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1710631494804157</v>
+        <v>0.1732101616628176</v>
       </c>
       <c r="R10">
-        <v>0.1015187849720224</v>
+        <v>0.09930715935334873</v>
       </c>
       <c r="S10">
-        <v>0.4044764188649081</v>
+        <v>0.4026173979984604</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1438356164383562</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1095890410958904</v>
+        <v>0.1077441077441077</v>
       </c>
       <c r="K11">
-        <v>0.1952054794520548</v>
+        <v>0.1986531986531987</v>
       </c>
       <c r="L11">
-        <v>0.541095890410959</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01027397260273973</v>
+        <v>0.0101010101010101</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7378048780487805</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1829268292682927</v>
+        <v>0.1878787878787879</v>
       </c>
       <c r="K12">
-        <v>0.006097560975609756</v>
+        <v>0.006060606060606061</v>
       </c>
       <c r="L12">
-        <v>0.03048780487804878</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0426829268292683</v>
+        <v>0.04242424242424243</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01094890510948905</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.0948905109489051</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="I15">
-        <v>0.1094890510948905</v>
+        <v>0.1056338028169014</v>
       </c>
       <c r="J15">
-        <v>0.354014598540146</v>
+        <v>0.352112676056338</v>
       </c>
       <c r="K15">
-        <v>0.04744525547445255</v>
+        <v>0.04577464788732395</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0218978102189781</v>
+        <v>0.02112676056338028</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0948905109489051</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2664233576642336</v>
+        <v>0.2640845070422535</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1741935483870968</v>
+        <v>0.175</v>
       </c>
       <c r="I16">
-        <v>0.08387096774193549</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="J16">
-        <v>0.3806451612903226</v>
+        <v>0.38125</v>
       </c>
       <c r="K16">
-        <v>0.08387096774193549</v>
+        <v>0.08125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.05161290322580645</v>
+        <v>0.05</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05806451612903226</v>
+        <v>0.05625</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1354838709677419</v>
+        <v>0.1375</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02544529262086514</v>
+        <v>0.02457002457002457</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1653944020356234</v>
+        <v>0.1646191646191646</v>
       </c>
       <c r="I17">
-        <v>0.08905852417302799</v>
+        <v>0.085995085995086</v>
       </c>
       <c r="J17">
-        <v>0.3969465648854962</v>
+        <v>0.4004914004914005</v>
       </c>
       <c r="K17">
-        <v>0.1094147582697201</v>
+        <v>0.1056511056511057</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02290076335877863</v>
+        <v>0.02211302211302211</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06361323155216285</v>
+        <v>0.06388206388206388</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1272264631043257</v>
+        <v>0.1326781326781327</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01666666666666667</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1666666666666667</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="I18">
-        <v>0.1041666666666667</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="J18">
-        <v>0.4041666666666667</v>
+        <v>0.4057377049180328</v>
       </c>
       <c r="K18">
-        <v>0.09166666666666666</v>
+        <v>0.09016393442622951</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01666666666666667</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="N18">
-        <v>0.004166666666666667</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="O18">
-        <v>0.06666666666666667</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1291666666666667</v>
+        <v>0.1311475409836066</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01324503311258278</v>
+        <v>0.01353276353276353</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2001471670345843</v>
+        <v>0.1994301994301994</v>
       </c>
       <c r="I19">
-        <v>0.09050772626931568</v>
+        <v>0.09116809116809117</v>
       </c>
       <c r="J19">
-        <v>0.3804267844002943</v>
+        <v>0.3810541310541311</v>
       </c>
       <c r="K19">
-        <v>0.1044885945548197</v>
+        <v>0.103988603988604</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01766004415011038</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="N19">
-        <v>0.001471670345842531</v>
+        <v>0.001424501424501425</v>
       </c>
       <c r="O19">
-        <v>0.08535688005886681</v>
+        <v>0.08475783475783476</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1066961000735835</v>
+        <v>0.1075498575498575</v>
       </c>
     </row>
   </sheetData>
